--- a/medicine/Mort/Cimetière_de_Sevran/Cimetière_de_Sevran.xlsx
+++ b/medicine/Mort/Cimetière_de_Sevran/Cimetière_de_Sevran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sevran</t>
+          <t>Cimetière_de_Sevran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Sevran est le cimetière de la commune de Sevran. Il est situé 32, avenue du Général-Leclerc[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Sevran est le cimetière de la commune de Sevran. Il est situé 32, avenue du Général-Leclerc.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sevran</t>
+          <t>Cimetière_de_Sevran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière remplace en 1866 celui de l'église Saint-Martin de Sevran[2], qui se trouvait devant le côté sud de l'édifice[3].
-Il accueille un monument aux morts, hommage aux victimes des deux guerres mondiales, d'Indochine et des anciens d'Afrique du Nord-Algérie, conçu par messieurs Renard[4], architecte municipal, et Bourgeois, architecte à Paris[5] et réalisé par l'entreprise Ledoux. Tout d'abord inauguré le 19 juin 1921 dans la cour de la Mairie, il est installé à son emplacement actuel en 1929[6]. 
-Outre ce monument aux morts, il s'y trouve aussi un carré de corps restitués[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière remplace en 1866 celui de l'église Saint-Martin de Sevran, qui se trouvait devant le côté sud de l'édifice.
+Il accueille un monument aux morts, hommage aux victimes des deux guerres mondiales, d'Indochine et des anciens d'Afrique du Nord-Algérie, conçu par messieurs Renard, architecte municipal, et Bourgeois, architecte à Paris et réalisé par l'entreprise Ledoux. Tout d'abord inauguré le 19 juin 1921 dans la cour de la Mairie, il est installé à son emplacement actuel en 1929. 
+Outre ce monument aux morts, il s'y trouve aussi un carré de corps restitués.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sevran</t>
+          <t>Cimetière_de_Sevran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas-Martin Pivot, maire de la ville, décédé en 1884[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas-Martin Pivot, maire de la ville, décédé en 1884.
 Denise Albert (1922-2016), résistante communiste.
 Le cénotaphe commémorant la Guerre franco-allemande de 1870 porte l'inscription: "A nos morts de la guerre de 1870".
-Le cimetière accueille de plus, la sépulture de trois soldats allemands morts pendant cette guerre[9].
+Le cimetière accueille de plus, la sépulture de trois soldats allemands morts pendant cette guerre.
 </t>
         </is>
       </c>
